--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 5 (43, 19, 11, 17, 31)/Ableson 4 (36, 30, 39, 35, 43)/NCDE_32nodes_Uniform0.05Virtual_Nelson(43, 19, 11, 17, 31)_Ableson(36, 30, 39, 35, 43)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 5 (43, 19, 11, 17, 31)/Ableson 4 (36, 30, 39, 35, 43)/NCDE_32nodes_Uniform0.05Virtual_Nelson(43, 19, 11, 17, 31)_Ableson(36, 30, 39, 35, 43)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.0644659880344009</v>
+        <v>0.06428691266220485</v>
       </c>
       <c r="E2">
-        <v>0.0644659880344009</v>
+        <v>0.06428691266220485</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.000417045419239447</v>
+        <v>0.0004177273670890082</v>
       </c>
       <c r="E3">
-        <v>0.000417045419239447</v>
+        <v>0.0004177273670890082</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9789810086242283</v>
+        <v>0.9790669880789175</v>
       </c>
       <c r="E4">
-        <v>0.9789810086242283</v>
+        <v>0.9790669880789175</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.0004002040815733592</v>
+        <v>0.000399177427840021</v>
       </c>
       <c r="E5">
-        <v>0.0004002040815733592</v>
+        <v>0.000399177427840021</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.05224993698608238</v>
+        <v>0.05219987094211664</v>
       </c>
       <c r="E6">
-        <v>0.05224993698608238</v>
+        <v>0.05219987094211664</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9896592950119563</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0.01034070498804374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -537,13 +537,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.9901559313243266</v>
+        <v>2.419878922030138E-09</v>
       </c>
       <c r="E8">
-        <v>0.009844068675673445</v>
+        <v>0.999999997580121</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -551,13 +551,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.9904449323960113</v>
+        <v>0.009098934946045283</v>
       </c>
       <c r="E9">
-        <v>0.009555067603988721</v>
+        <v>0.9909010650539547</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -565,13 +565,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.9904757320543484</v>
+        <v>3.767160850072398E-06</v>
       </c>
       <c r="E10">
-        <v>0.009524267945651643</v>
+        <v>0.99999623283915</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9894587785964872</v>
+        <v>0.9999999950982748</v>
       </c>
       <c r="E11">
-        <v>0.01054122140351277</v>
+        <v>4.901725247918876E-09</v>
       </c>
       <c r="F11">
-        <v>0.4033504128456116</v>
+        <v>4.101563453674316</v>
       </c>
       <c r="G11">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0.02954539596043181</v>
+        <v>0.02979376804258702</v>
       </c>
       <c r="E12">
-        <v>0.02954539596043181</v>
+        <v>0.02979376804258702</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>8.646406290400074E-05</v>
+        <v>8.606573005312807E-05</v>
       </c>
       <c r="E13">
-        <v>8.646406290400074E-05</v>
+        <v>8.606573005312807E-05</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.9961852859379462</v>
+        <v>0.9961459094070299</v>
       </c>
       <c r="E14">
-        <v>0.9961852859379462</v>
+        <v>0.9961459094070299</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0.00113096514472047</v>
+        <v>0.001133821599325619</v>
       </c>
       <c r="E15">
-        <v>0.00113096514472047</v>
+        <v>0.001133821599325619</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.01536728988599375</v>
+        <v>0.01548560677879582</v>
       </c>
       <c r="E16">
-        <v>0.01536728988599375</v>
+        <v>0.01548560677879582</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.9967935051398484</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0.003206494860151565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -686,13 +686,13 @@
         <v>12</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.9975609144614124</v>
+        <v>1.463037552608386E-13</v>
       </c>
       <c r="E18">
-        <v>0.002439085538587626</v>
+        <v>0.9999999999998537</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.9972899780492731</v>
+        <v>0.002845659743289048</v>
       </c>
       <c r="E19">
-        <v>0.002710021950726893</v>
+        <v>0.9971543402567109</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.9972233655033786</v>
+        <v>0.0001149059028904656</v>
       </c>
       <c r="E20">
-        <v>0.002776634496621355</v>
+        <v>0.9998850940971096</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,16 +731,16 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.9974357787880219</v>
+        <v>0.9999999999969675</v>
       </c>
       <c r="E21">
-        <v>0.002564221211978079</v>
+        <v>3.032463169461153E-12</v>
       </c>
       <c r="F21">
-        <v>0.5629300475120544</v>
+        <v>5.009214401245117</v>
       </c>
       <c r="G21">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
